--- a/lab_1/data_points_3.xlsx
+++ b/lab_1/data_points_3.xlsx
@@ -5,7 +5,8 @@
   <sheets>
     <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Лист2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Лист3" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Лист4" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Лист3" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -75,6 +76,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -346,68 +351,84 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>1.0</v>
       </c>
       <c r="B1" s="2">
-        <v>2.5</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>2.0</v>
       </c>
       <c r="B2" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
         <v>5.0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>5.0</v>
-      </c>
       <c r="B5" s="2">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>6.0</v>
       </c>
       <c r="B6" s="2">
-        <v>6.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>49.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>64.0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>81.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
@@ -447,6 +468,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
